--- a/H1299_143B_prot-nucl-quant/acid-hydrolysis/CoulterCounter_data/H1299-Nuc-RFP/merged_H1299.xlsx
+++ b/H1299_143B_prot-nucl-quant/acid-hydrolysis/CoulterCounter_data/H1299-Nuc-RFP/merged_H1299.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/CoulterCounter_data/H1299-Nuc-RFP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/acid-hydrolysis/CoulterCounter_data/H1299-Nuc-RFP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A429B646-EBC5-BB46-A665-977C5D3D21F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16761E28-1D0D-BF46-9AEB-CB3184E8EBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="7840" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1062,6 +1062,12 @@
         <v>5.0319034666666669</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f>AVERAGE(L2:L10)</f>
+        <v>6387.8888888888887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
